--- a/stc-util/Geradores de Incoming/HIPERCARD/ChargeBackSegAprHipercard.xlsx
+++ b/stc-util/Geradores de Incoming/HIPERCARD/ChargeBackSegAprHipercard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0404mnl\Documents\Manuel\Projetos\STC\Geradores de Incoming\HIPERCARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0404mnl\git\mhj-util\stc-util\Geradores de Incoming\HIPERCARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -866,25 +866,25 @@
     <t xml:space="preserve">teste seg apr                                                                                       </t>
   </si>
   <si>
-    <t xml:space="preserve">       200002025708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   </t>
-  </si>
-  <si>
-    <t>0000005</t>
-  </si>
-  <si>
-    <t>20190401</t>
-  </si>
-  <si>
     <t>05103246259000000006182</t>
   </si>
   <si>
-    <t>000000194277</t>
+    <t>000000194385</t>
+  </si>
+  <si>
+    <t>0000006</t>
+  </si>
+  <si>
+    <t>20190510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200002025711       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">743                </t>
+  </si>
+  <si>
+    <t>1231234564567897891</t>
   </si>
 </sst>
 </file>
@@ -2949,7 +2949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J825"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D67" sqref="D65:D67"/>
     </sheetView>
   </sheetViews>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B14" s="27" t="str">
         <f>B70</f>
-        <v>20190401</v>
+        <v>20190510</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>B77</f>
-        <v>0000005</v>
+        <v>0000006</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B16" s="27" t="str">
         <f>B70</f>
-        <v>20190401</v>
+        <v>20190510</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B20" s="33" t="str">
         <f>B12&amp;B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18&amp;B19</f>
-        <v xml:space="preserve">002-CONFIRMA_OUTGOING_SEG_APRES 20190401000000520190401080000040                                                                                                                                                                                                                                                                                                                                                                                                                                                    </v>
+        <v xml:space="preserve">002-CONFIRMA_OUTGOING_SEG_APRES 20190510000000620190510080000040                                                                                                                                                                                                                                                                                                                                                                                                                                                    </v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -3668,7 +3668,7 @@
         <v>137</v>
       </c>
       <c r="B31" s="86" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="2"/>
@@ -3955,7 +3955,7 @@
         <v>158</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="2"/>
@@ -4297,7 +4297,7 @@
         <v>116</v>
       </c>
       <c r="B51" s="87" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C51" s="8">
         <f t="shared" si="2"/>
@@ -4328,7 +4328,7 @@
         <v>118</v>
       </c>
       <c r="B52" s="87" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C52" s="8">
         <f t="shared" si="2"/>
@@ -4359,7 +4359,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="87" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C53" s="89">
         <f t="shared" si="2"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="B55" s="66" t="str">
         <f>CONCATENATE(B22,B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B52,B53,B54)</f>
-        <v xml:space="preserve">01001560000000015600001560156000000000010001020teste seg apr                                                                                       70000000209860201902100510324625900000000618260628241285771578970111111110000001942770000000mensagem retorno segunda apresentacao                                                                                                                 0000110000000000000000000110101       200002025708                780                                          </v>
+        <v xml:space="preserve">01001560000000015600001560156000000000010001020teste seg apr                                                                                       70000000209860201902100510324625900000000618260628241285771578970111111110000001943850000000mensagem retorno segunda apresentacao                                                                                                                 0000110000000000000000000110101200002025711       743                1231234564567897891                       </v>
       </c>
       <c r="C55" s="8">
         <f t="shared" si="2"/>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="D65" t="str">
         <f>CONCATENATE(B20)</f>
-        <v xml:space="preserve">002-CONFIRMA_OUTGOING_SEG_APRES 20190401000000520190401080000040                                                                                                                                                                                                                                                                                                                                                                                                                                                    </v>
+        <v xml:space="preserve">002-CONFIRMA_OUTGOING_SEG_APRES 20190510000000620190510080000040                                                                                                                                                                                                                                                                                                                                                                                                                                                    </v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D66" t="str">
         <f>CONCATENATE(B55)</f>
-        <v xml:space="preserve">01001560000000015600001560156000000000010001020teste seg apr                                                                                       70000000209860201902100510324625900000000618260628241285771578970111111110000001942770000000mensagem retorno segunda apresentacao                                                                                                                 0000110000000000000000000110101       200002025708                780                                          </v>
+        <v xml:space="preserve">01001560000000015600001560156000000000010001020teste seg apr                                                                                       70000000209860201902100510324625900000000618260628241285771578970111111110000001943850000000mensagem retorno segunda apresentacao                                                                                                                 0000110000000000000000000110101200002025711       743                1231234564567897891                       </v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4665,7 +4665,7 @@
         <v>90</v>
       </c>
       <c r="B70" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" ref="C70:C75" si="7">LEN(B70)</f>
@@ -4745,7 +4745,7 @@
         <v>92</v>
       </c>
       <c r="B77" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C77" s="1">
         <f t="shared" ref="C77" si="9">LEN(B77)</f>
